--- a/Physics model templates/physics-table.xlsx
+++ b/Physics model templates/physics-table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t xml:space="preserve">defender cluts</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">orb allegiance</t>
   </si>
   <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">far side</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">2 and 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civilian S’pht non-alien, friendly</t>
   </si>
   <si>
     <t xml:space="preserve">eat spht</t>
@@ -442,10 +448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,7 +465,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.5"/>
@@ -507,41 +513,44 @@
       <c r="M2" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5"/>
       <c r="J4" s="6"/>
@@ -559,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="6"/>
@@ -569,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="6"/>
@@ -579,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5"/>
       <c r="J7" s="6"/>
@@ -589,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="6"/>
@@ -599,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="6"/>
@@ -609,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5"/>
       <c r="J10" s="6"/>
@@ -619,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5"/>
       <c r="J11" s="6"/>
@@ -629,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="6"/>
@@ -639,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="5"/>
       <c r="J13" s="6"/>
@@ -649,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="5"/>
       <c r="J14" s="6"/>
@@ -659,22 +668,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" s="5"/>
       <c r="J15" s="6"/>
@@ -684,22 +693,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="5"/>
       <c r="J16" s="6"/>
@@ -709,22 +718,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" s="6"/>
@@ -734,22 +743,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="5"/>
       <c r="J18" s="6"/>
@@ -759,22 +768,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5"/>
       <c r="J19" s="6"/>
@@ -784,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5"/>
       <c r="J20" s="6"/>
@@ -794,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" s="5"/>
       <c r="J21" s="6"/>
@@ -804,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="6"/>
@@ -814,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="6"/>
@@ -824,28 +833,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,28 +862,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,28 +891,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,25 +920,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,25 +949,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>54</v>
+      <c r="N28" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,25 +978,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,13 +1007,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -1004,13 +1022,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31" s="6"/>
     </row>
@@ -1019,13 +1037,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -1034,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H33" s="5"/>
       <c r="J33" s="6"/>
@@ -1044,12 +1062,12 @@
         <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="6"/>
       <c r="K34" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>7</v>
@@ -1060,12 +1078,12 @@
         <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="6"/>
       <c r="K35" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>7</v>
@@ -1076,12 +1094,12 @@
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H36" s="5"/>
       <c r="J36" s="6"/>
       <c r="K36" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>7</v>
@@ -1092,12 +1110,12 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>7</v>
@@ -1108,12 +1126,12 @@
         <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H38" s="5"/>
       <c r="J38" s="6"/>
       <c r="K38" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>7</v>
@@ -1124,18 +1142,18 @@
         <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H39" s="5"/>
       <c r="J39" s="6"/>
       <c r="K39" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>7</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,12 +1161,12 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H40" s="5"/>
       <c r="J40" s="6"/>
       <c r="K40" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>7</v>
@@ -1159,12 +1177,12 @@
         <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="6"/>
       <c r="K41" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>7</v>
@@ -1175,12 +1193,12 @@
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H42" s="5"/>
       <c r="J42" s="6"/>
       <c r="K42" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>7</v>
@@ -1191,7 +1209,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H43" s="5"/>
       <c r="J43" s="6"/>
@@ -1201,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="6"/>
@@ -1211,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H45" s="5"/>
       <c r="J45" s="6"/>
@@ -1221,7 +1239,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H46" s="5"/>
       <c r="J46" s="6"/>
@@ -1231,7 +1249,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="6"/>
@@ -1241,7 +1259,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H48" s="5"/>
       <c r="J48" s="6"/>
@@ -1251,7 +1269,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H49" s="5"/>
       <c r="J49" s="6"/>
@@ -1261,7 +1279,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="6"/>
@@ -1271,7 +1289,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H51" s="5"/>
       <c r="J51" s="6"/>
@@ -1281,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H52" s="5"/>
       <c r="J52" s="6"/>
@@ -1291,7 +1309,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H53" s="5"/>
       <c r="J53" s="6"/>
@@ -1301,7 +1319,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H54" s="5"/>
       <c r="J54" s="6"/>

--- a/Physics model templates/physics-table.xlsx
+++ b/Physics model templates/physics-table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
   <si>
     <t xml:space="preserve">defender cluts</t>
   </si>
@@ -169,6 +169,12 @@
     <t xml:space="preserve">2 and 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Fighters use CLUTs 4,5,6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troopers use CLUTs 4,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleeping gods</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">vs player and pfhor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troopers use CLUTs 2,3</t>
   </si>
   <si>
     <t xml:space="preserve">incredible</t>
@@ -448,10 +457,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,7 +478,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,13 +867,19 @@
       <c r="J24" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="O24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>42</v>
@@ -884,6 +901,12 @@
       </c>
       <c r="J25" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +914,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>42</v>
@@ -913,6 +936,12 @@
       </c>
       <c r="J26" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,16 +949,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>46</v>
@@ -938,10 +967,16 @@
         <v>47</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,16 +984,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>46</v>
@@ -967,10 +1002,16 @@
         <v>47</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,16 +1019,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>46</v>
@@ -996,10 +1037,16 @@
         <v>47</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,52 +1054,70 @@
         <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="6"/>
+      <c r="O30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="6"/>
+      <c r="O31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="6"/>
+      <c r="O32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H33" s="5"/>
       <c r="J33" s="6"/>
@@ -1062,15 +1127,18 @@
         <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="6"/>
       <c r="K34" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,15 +1146,18 @@
         <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="6"/>
       <c r="K35" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,15 +1165,18 @@
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H36" s="5"/>
       <c r="J36" s="6"/>
       <c r="K36" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1184,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H37" s="5"/>
       <c r="J37" s="6"/>
@@ -1120,13 +1194,16 @@
       <c r="L37" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="O37" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H38" s="5"/>
       <c r="J38" s="6"/>
@@ -1136,13 +1213,16 @@
       <c r="L38" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="O38" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H39" s="5"/>
       <c r="J39" s="6"/>
@@ -1153,7 +1233,10 @@
         <v>7</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1244,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H40" s="5"/>
       <c r="J40" s="6"/>
@@ -1171,13 +1254,16 @@
       <c r="L40" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="O40" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="6"/>
@@ -1187,13 +1273,16 @@
       <c r="L41" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="O41" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H42" s="5"/>
       <c r="J42" s="6"/>
@@ -1203,13 +1292,16 @@
       <c r="L42" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="O42" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H43" s="5"/>
       <c r="J43" s="6"/>
@@ -1219,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H44" s="5"/>
       <c r="J44" s="6"/>
@@ -1229,7 +1321,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H45" s="5"/>
       <c r="J45" s="6"/>
@@ -1239,7 +1331,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H46" s="5"/>
       <c r="J46" s="6"/>
@@ -1249,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H47" s="5"/>
       <c r="J47" s="6"/>
@@ -1259,7 +1351,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H48" s="5"/>
       <c r="J48" s="6"/>
@@ -1269,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H49" s="5"/>
       <c r="J49" s="6"/>
@@ -1279,7 +1371,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H50" s="5"/>
       <c r="J50" s="6"/>
@@ -1289,7 +1381,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H51" s="5"/>
       <c r="J51" s="6"/>
@@ -1299,7 +1391,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H52" s="5"/>
       <c r="J52" s="6"/>
@@ -1309,7 +1401,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H53" s="5"/>
       <c r="J53" s="6"/>
@@ -1319,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H54" s="5"/>
       <c r="J54" s="6"/>

--- a/Physics model templates/physics-table.xlsx
+++ b/Physics model templates/physics-table.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
-  <si>
-    <t xml:space="preserve">defender cluts</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="104">
+  <si>
+    <t xml:space="preserve">CLUTs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defender</t>
   </si>
   <si>
     <t xml:space="preserve">compiler allegiance</t>
@@ -40,7 +43,10 @@
     <t xml:space="preserve">defender allegiance</t>
   </si>
   <si>
-    <t xml:space="preserve">defender</t>
+    <t xml:space="preserve">orb allegiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hulk allegiance</t>
   </si>
   <si>
     <t xml:space="preserve">tank</t>
@@ -49,16 +55,25 @@
     <t xml:space="preserve">flame tank</t>
   </si>
   <si>
-    <t xml:space="preserve">hulk allegiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hulk clut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orb allegiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
+    <t xml:space="preserve">hulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melee Fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiny pfhor, tiny bob =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
   </si>
   <si>
     <t xml:space="preserve">far side</t>
@@ -73,10 +88,22 @@
     <t xml:space="preserve">(Kr) player vs pfhor (aka Pv4)</t>
   </si>
   <si>
+    <t xml:space="preserve">player vs monsters</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 and 0</t>
   </si>
   <si>
-    <t xml:space="preserve">player vs monsters</t>
+    <t xml:space="preserve">0, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 3, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skitter, Nightmare</t>
   </si>
   <si>
     <t xml:space="preserve">deva vu</t>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">ignore compilers and tanks</t>
   </si>
   <si>
+    <t xml:space="preserve">disabled juggernaut</t>
+  </si>
+  <si>
     <t xml:space="preserve">unlucky</t>
   </si>
   <si>
@@ -169,10 +199,13 @@
     <t xml:space="preserve">2 and 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Fighters use CLUTs 4,5,6,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troopers use CLUTs 4,5</t>
+    <t xml:space="preserve">4, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 4, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 4</t>
   </si>
   <si>
     <t xml:space="preserve">sleeping gods</t>
@@ -226,7 +259,16 @@
     <t xml:space="preserve">vs player and pfhor</t>
   </si>
   <si>
-    <t xml:space="preserve">Troopers use CLUTs 2,3</t>
+    <t xml:space="preserve">6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, 5, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
   </si>
   <si>
     <t xml:space="preserve">incredible</t>
@@ -323,12 +365,102 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FF99FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor rgb="FFFF66CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor rgb="FFCC66FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -407,37 +539,109 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -449,6 +653,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFF33FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF66CC"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF9999"/>
+      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFCC66FF"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,10 +721,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,954 +735,2030 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="S3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="J5" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="J9" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="J10" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="J11" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="J12" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="J13" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="J14" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="J15" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="J16" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="J17" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="J18" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="J19" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="J20" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="J21" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="J23" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="0" t="s">
         <v>50</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>50</v>
+      <c r="C25" s="7"/>
+      <c r="D25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>50</v>
+      <c r="E26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="L27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O27" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>50</v>
+      <c r="M27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>50</v>
+      <c r="O28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>50</v>
+      <c r="P29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="O30" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P30" s="0" t="s">
-        <v>50</v>
+      <c r="Q30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="O31" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="O32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P32" s="0" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="J33" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O35" s="0" t="s">
-        <v>68</v>
+      <c r="N35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O36" s="0" t="s">
-        <v>68</v>
+      <c r="N36" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O37" s="0" t="s">
-        <v>68</v>
+      <c r="N37" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O38" s="0" t="s">
-        <v>68</v>
+      <c r="N38" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M39" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>68</v>
+      <c r="N39" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O40" s="0" t="s">
-        <v>68</v>
+      <c r="N40" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O40" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q40" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O41" s="0" t="s">
-        <v>68</v>
+      <c r="N41" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O42" s="0" t="s">
-        <v>68</v>
+      <c r="N42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O42" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O43" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="J44" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="J44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="J45" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="J45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="5"/>
-      <c r="J46" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="J46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="J47" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="J47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="J48" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="J48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="J49" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="J49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="J50" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="J50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="J51" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="J51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="J52" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="J52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="J53" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="J53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="9"/>
+      <c r="M53" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="J54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="J54" s="6"/>
+      <c r="B55" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="J55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="2">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
